--- a/SNP位點挑選資訊_自製表格_Mika_AS.xlsx
+++ b/SNP位點挑選資訊_自製表格_Mika_AS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikali\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikali\Desktop\20240723\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36502ED5-FD39-4591-98B7-7D4760D1EED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFEB67A-D434-4166-9B13-9429BAA5E161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E97A958B-F40C-4998-BD87-385C687588E0}"/>
   </bookViews>
@@ -25,12 +25,231 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>Gene ID</t>
+  </si>
+  <si>
+    <t>Chromosome</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>genome version (GRCh37 or GRCh38)</t>
+  </si>
+  <si>
+    <t>ref allele</t>
+  </si>
+  <si>
+    <t>minor allele (Alternative)</t>
+  </si>
+  <si>
+    <t>MAF</t>
+  </si>
+  <si>
+    <t>Odds Ratio (OR, GWAS)</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>其他資訊自行增列</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Microsoft YaHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>變異位點</t>
+    </r>
+  </si>
+  <si>
+    <t>A.A 
+change</t>
+  </si>
+  <si>
+    <t>Inheritance mode</t>
+  </si>
+  <si>
+    <r>
+      <t>Original Source 
+(GWAS</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>dbSNP</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、Ensembl、papers</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>是否存在同點位</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>&amp;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>具致病性的紀錄</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>此處多附加相隔</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1bp </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="微軟正黑體"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的致病位點紀錄</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>MAF TWB_TW
+(n=~1500)</t>
+  </si>
+  <si>
+    <t>MAF 1000G_EAS
+(n=504)</t>
+  </si>
+  <si>
+    <t>綜合判斷</t>
+  </si>
+  <si>
+    <t> PRS</t>
+  </si>
+  <si>
+    <t>EFO</t>
+  </si>
+  <si>
+    <t>說明2</t>
+  </si>
+  <si>
+    <t>pValue</t>
+  </si>
+  <si>
+    <t>dbSNP ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gene Label</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -46,16 +265,59 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -63,19 +325,69 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="2" xr:uid="{8C8C6BDC-2D58-4418-A0BD-89873430CB24}"/>
+    <cellStyle name="一般 3" xfId="1" xr:uid="{104783E6-E13F-4C05-B430-1C85F000E792}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -387,14 +699,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B141AFE-70C6-4881-AC9F-CC763A5EE5B5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:25" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="7"/>
+      <c r="B1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="U1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="V1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="W1" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SNP位點挑選資訊_自製表格_Mika_AS.xlsx
+++ b/SNP位點挑選資訊_自製表格_Mika_AS.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikali\Desktop\20240723\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikali\Desktop\gitfamily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BFEB67A-D434-4166-9B13-9429BAA5E161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4A1468A-CC81-4D38-9DED-4B30044FB6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E97A958B-F40C-4998-BD87-385C687588E0}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E97A958B-F40C-4998-BD87-385C687588E0}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="不想重複" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1737" uniqueCount="408">
   <si>
     <t>Gene ID</t>
   </si>
@@ -241,13 +242,1165 @@
     <t>Gene Label</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>rs11209026</t>
+  </si>
+  <si>
+    <t>rs2310173</t>
+  </si>
+  <si>
+    <t>rs2242944</t>
+  </si>
+  <si>
+    <t>rs7743761</t>
+  </si>
+  <si>
+    <t>rs10865331</t>
+  </si>
+  <si>
+    <t>rs27434</t>
+  </si>
+  <si>
+    <t>rs1018326</t>
+  </si>
+  <si>
+    <t>rs1326986</t>
+  </si>
+  <si>
+    <t>rs4333130</t>
+  </si>
+  <si>
+    <t>rs4349859</t>
+  </si>
+  <si>
+    <t>rs378108</t>
+  </si>
+  <si>
+    <t>rs11249215</t>
+  </si>
+  <si>
+    <t>rs2297909</t>
+  </si>
+  <si>
+    <t>rs30187</t>
+  </si>
+  <si>
+    <t>rs6556416</t>
+  </si>
+  <si>
+    <t>rs11616188</t>
+  </si>
+  <si>
+    <t>rs4389526</t>
+  </si>
+  <si>
+    <t>rs10440635</t>
+  </si>
+  <si>
+    <t>rs10781500</t>
+  </si>
+  <si>
+    <t>rs8070463</t>
+  </si>
+  <si>
+    <t>rs4552569</t>
+  </si>
+  <si>
+    <t>rs17095830</t>
+  </si>
+  <si>
+    <t>rs12146962</t>
+  </si>
+  <si>
+    <t>rs2075726</t>
+  </si>
+  <si>
+    <t>rs13210693</t>
+  </si>
+  <si>
+    <t>rs2910686</t>
+  </si>
+  <si>
+    <t>rs7954567</t>
+  </si>
+  <si>
+    <t>rs2297518</t>
+  </si>
+  <si>
+    <t>rs6759298</t>
+  </si>
+  <si>
+    <t>rs10045403</t>
+  </si>
+  <si>
+    <t>rs2192752</t>
+  </si>
+  <si>
+    <t>rs2836883</t>
+  </si>
+  <si>
+    <t>rs4129267</t>
+  </si>
+  <si>
+    <t>rs1801274</t>
+  </si>
+  <si>
+    <t>rs12615545</t>
+  </si>
+  <si>
+    <t>rs4676410</t>
+  </si>
+  <si>
+    <t>rs17765610</t>
+  </si>
+  <si>
+    <t>rs1250550</t>
+  </si>
+  <si>
+    <t>rs11190133</t>
+  </si>
+  <si>
+    <t>rs11065898</t>
+  </si>
+  <si>
+    <t>rs11624293</t>
+  </si>
+  <si>
+    <t>rs2531875</t>
+  </si>
+  <si>
+    <t>rs35164067</t>
+  </si>
+  <si>
+    <t>rs7282490</t>
+  </si>
+  <si>
+    <t>rs12758027</t>
+  </si>
+  <si>
+    <t>rs4851529</t>
+  </si>
+  <si>
+    <t>rs13093489</t>
+  </si>
+  <si>
+    <t>rs11742270</t>
+  </si>
+  <si>
+    <t>rs6600247</t>
+  </si>
+  <si>
+    <t>rs41299637</t>
+  </si>
+  <si>
+    <t>rs12186979</t>
+  </si>
+  <si>
+    <t>rs6871626</t>
+  </si>
+  <si>
+    <t>rs1128905</t>
+  </si>
+  <si>
+    <t>rs1860545</t>
+  </si>
+  <si>
+    <t>rs9901869</t>
+  </si>
+  <si>
+    <t>rs2402752</t>
+  </si>
+  <si>
+    <t>rs2283790</t>
+  </si>
+  <si>
+    <t>rs116488202</t>
+  </si>
+  <si>
+    <t>rs2394250</t>
+  </si>
+  <si>
+    <t>rs12141575</t>
+  </si>
+  <si>
+    <t>rs17192932</t>
+  </si>
+  <si>
+    <t>rs117486637</t>
+  </si>
+  <si>
+    <t>rs7874251</t>
+  </si>
+  <si>
+    <t>rs10000518</t>
+  </si>
+  <si>
+    <t>rs148783236</t>
+  </si>
+  <si>
+    <t>rs1013210</t>
+  </si>
+  <si>
+    <t>rs34939008</t>
+  </si>
+  <si>
+    <t>rs6502398</t>
+  </si>
+  <si>
+    <t>rs7217335</t>
+  </si>
+  <si>
+    <t>rs8036083</t>
+  </si>
+  <si>
+    <t>rs13001372</t>
+  </si>
+  <si>
+    <t>rs4876208</t>
+  </si>
+  <si>
+    <t>rs27529</t>
+  </si>
+  <si>
+    <t>rs10280089</t>
+  </si>
+  <si>
+    <t>rs235316</t>
+  </si>
+  <si>
+    <t>rs2031610</t>
+  </si>
+  <si>
+    <t>rs7298011</t>
+  </si>
+  <si>
+    <t>rs61752717</t>
+  </si>
+  <si>
+    <t>rs4246905</t>
+  </si>
+  <si>
+    <t>rs11145763</t>
+  </si>
+  <si>
+    <t>rs36051895</t>
+  </si>
+  <si>
+    <t>rs706778</t>
+  </si>
+  <si>
+    <t>rs10822050</t>
+  </si>
+  <si>
+    <t>rs1250563</t>
+  </si>
+  <si>
+    <t>rs1332099</t>
+  </si>
+  <si>
+    <t>rs17885785</t>
+  </si>
+  <si>
+    <t>rs17466626</t>
+  </si>
+  <si>
+    <t>rs1689510</t>
+  </si>
+  <si>
+    <t>rs72743477</t>
+  </si>
+  <si>
+    <t>rs12598357</t>
+  </si>
+  <si>
+    <t>rs12928404</t>
+  </si>
+  <si>
+    <t>rs117372389</t>
+  </si>
+  <si>
+    <t>rs12232497</t>
+  </si>
+  <si>
+    <t>rs11580078</t>
+  </si>
+  <si>
+    <t>rs6679677</t>
+  </si>
+  <si>
+    <t>rs34884278</t>
+  </si>
+  <si>
+    <t>rs6689858</t>
+  </si>
+  <si>
+    <t>rs55705316</t>
+  </si>
+  <si>
+    <t>rs2075184</t>
+  </si>
+  <si>
+    <t>rs36001488</t>
+  </si>
+  <si>
+    <t>rs4625</t>
+  </si>
+  <si>
+    <t>rs62324212</t>
+  </si>
+  <si>
+    <t>rs7725052</t>
+  </si>
+  <si>
+    <t>rs7731626</t>
+  </si>
+  <si>
+    <t>rs4869313</t>
+  </si>
+  <si>
+    <t>rs11741255</t>
+  </si>
+  <si>
+    <t>rs755374</t>
+  </si>
+  <si>
+    <t>rs2066363</t>
+  </si>
+  <si>
+    <t>rs114846446</t>
+  </si>
+  <si>
+    <t>rs7672495</t>
+  </si>
+  <si>
+    <t>rs7660520</t>
+  </si>
+  <si>
+    <t>rs7831697</t>
+  </si>
+  <si>
+    <t>rs7042370</t>
+  </si>
+  <si>
+    <t>rs10988542</t>
+  </si>
+  <si>
+    <t>rs7100025</t>
+  </si>
+  <si>
+    <t>rs11839053</t>
+  </si>
+  <si>
+    <t>rs77150043</t>
+  </si>
+  <si>
+    <t>rs2807264</t>
+  </si>
+  <si>
+    <t>rs12863738</t>
+  </si>
+  <si>
+    <t>rs62131887</t>
+  </si>
+  <si>
+    <t>rs602662</t>
+  </si>
+  <si>
+    <t>rs2738774</t>
+  </si>
+  <si>
+    <t>rs2836882</t>
+  </si>
+  <si>
+    <t>rs3197999</t>
+  </si>
+  <si>
+    <t>rs116046827</t>
+  </si>
+  <si>
+    <t>rs1001007</t>
+  </si>
+  <si>
+    <t>rs6781808</t>
+  </si>
+  <si>
+    <t>rs11098964</t>
+  </si>
+  <si>
+    <t>rs13107612</t>
+  </si>
+  <si>
+    <t>rs3774937</t>
+  </si>
+  <si>
+    <t>rs59867199</t>
+  </si>
+  <si>
+    <t>rs13132308</t>
+  </si>
+  <si>
+    <t>rs11750385</t>
+  </si>
+  <si>
+    <t>rs3776414</t>
+  </si>
+  <si>
+    <t>rs395157</t>
+  </si>
+  <si>
+    <t>rs1992661</t>
+  </si>
+  <si>
+    <t>rs11749040</t>
+  </si>
+  <si>
+    <t>rs9687958</t>
+  </si>
+  <si>
+    <t>rs702872</t>
+  </si>
+  <si>
+    <t>rs11675538</t>
+  </si>
+  <si>
+    <t>rs4672505</t>
+  </si>
+  <si>
+    <t>rs12987977</t>
+  </si>
+  <si>
+    <t>rs871656</t>
+  </si>
+  <si>
+    <t>rs11691685</t>
+  </si>
+  <si>
+    <t>rs2111485</t>
+  </si>
+  <si>
+    <t>rs35667974</t>
+  </si>
+  <si>
+    <t>rs3747517</t>
+  </si>
+  <si>
+    <t>rs2451258</t>
+  </si>
+  <si>
+    <t>rs111305875</t>
+  </si>
+  <si>
+    <t>rs2301436</t>
+  </si>
+  <si>
+    <t>rs1182188</t>
+  </si>
+  <si>
+    <t>rs1525735</t>
+  </si>
+  <si>
+    <t>rs28550029</t>
+  </si>
+  <si>
+    <t>rs860262</t>
+  </si>
+  <si>
+    <t>rs4917129</t>
+  </si>
+  <si>
+    <t>rs12718244</t>
+  </si>
+  <si>
+    <t>rs9297145</t>
+  </si>
+  <si>
+    <t>rs6466198</t>
+  </si>
+  <si>
+    <t>rs7805114</t>
+  </si>
+  <si>
+    <t>rs4728142</t>
+  </si>
+  <si>
+    <t>rs2538470</t>
+  </si>
+  <si>
+    <t>rs1551399</t>
+  </si>
+  <si>
+    <t>rs2042011</t>
+  </si>
+  <si>
+    <t>rs10094579</t>
+  </si>
+  <si>
+    <t>rs6651252</t>
+  </si>
+  <si>
+    <t>rs10758669</t>
+  </si>
+  <si>
+    <t>rs2812378</t>
+  </si>
+  <si>
+    <t>rs7848647</t>
+  </si>
+  <si>
+    <t>rs726657</t>
+  </si>
+  <si>
+    <t>rs7468800</t>
+  </si>
+  <si>
+    <t>rs4986790</t>
+  </si>
+  <si>
+    <t>rs10870077</t>
+  </si>
+  <si>
+    <t>rs141992399</t>
+  </si>
+  <si>
+    <t>rs3124998</t>
+  </si>
+  <si>
+    <t>rs61839660</t>
+  </si>
+  <si>
+    <t>rs3118471</t>
+  </si>
+  <si>
+    <t>rs76913543</t>
+  </si>
+  <si>
+    <t>rs2104286</t>
+  </si>
+  <si>
+    <t>rs2236379</t>
+  </si>
+  <si>
+    <t>rs2050392</t>
+  </si>
+  <si>
+    <t>rs34779708</t>
+  </si>
+  <si>
+    <t>rs10995271</t>
+  </si>
+  <si>
+    <t>rs4243971</t>
+  </si>
+  <si>
+    <t>rs2823288</t>
+  </si>
+  <si>
+    <t>rs6058869</t>
+  </si>
+  <si>
+    <t>rs679574</t>
+  </si>
+  <si>
+    <t>rs4812833</t>
+  </si>
+  <si>
+    <t>rs79493594</t>
+  </si>
+  <si>
+    <t>rs1883832</t>
+  </si>
+  <si>
+    <t>rs1328454</t>
+  </si>
+  <si>
+    <t>rs259964</t>
+  </si>
+  <si>
+    <t>rs6062496</t>
+  </si>
+  <si>
+    <t>rs2284553</t>
+  </si>
+  <si>
+    <t>rs9977672</t>
+  </si>
+  <si>
+    <t>rs1893592</t>
+  </si>
+  <si>
+    <t>rs4456788</t>
+  </si>
+  <si>
+    <t>rs2266961</t>
+  </si>
+  <si>
+    <t>rs71624119</t>
+  </si>
+  <si>
+    <t>rs4703855</t>
+  </si>
+  <si>
+    <t>rs353339</t>
+  </si>
+  <si>
+    <t>rs34804116</t>
+  </si>
+  <si>
+    <t>rs469758</t>
+  </si>
+  <si>
+    <t>rs2549803</t>
+  </si>
+  <si>
+    <t>rs17622378</t>
+  </si>
+  <si>
+    <t>rs17622517</t>
+  </si>
+  <si>
+    <t>rs1004234</t>
+  </si>
+  <si>
+    <t>rs6863411</t>
+  </si>
+  <si>
+    <t>rs11749391</t>
+  </si>
+  <si>
+    <t>rs74817271</t>
+  </si>
+  <si>
+    <t>rs56167332</t>
+  </si>
+  <si>
+    <t>rs12188300</t>
+  </si>
+  <si>
+    <t>rs6697886</t>
+  </si>
+  <si>
+    <t>rs2234161</t>
+  </si>
+  <si>
+    <t>rs3766606</t>
+  </si>
+  <si>
+    <t>rs6426833</t>
+  </si>
+  <si>
+    <t>rs3806308</t>
+  </si>
+  <si>
+    <t>rs4655215</t>
+  </si>
+  <si>
+    <t>rs7552167</t>
+  </si>
+  <si>
+    <t>rs80174646</t>
+  </si>
+  <si>
+    <t>rs7517847</t>
+  </si>
+  <si>
+    <t>rs10889676</t>
+  </si>
+  <si>
+    <t>rs183686347</t>
+  </si>
+  <si>
+    <t>rs10748781</t>
+  </si>
+  <si>
+    <t>rs10743181</t>
+  </si>
+  <si>
+    <t>rs11229555</t>
+  </si>
+  <si>
+    <t>rs10750899</t>
+  </si>
+  <si>
+    <t>rs11230563</t>
+  </si>
+  <si>
+    <t>rs174535</t>
+  </si>
+  <si>
+    <t>rs559928</t>
+  </si>
+  <si>
+    <t>rs568617</t>
+  </si>
+  <si>
+    <t>rs11236797</t>
+  </si>
+  <si>
+    <t>rs7115956</t>
+  </si>
+  <si>
+    <t>rs4561177</t>
+  </si>
+  <si>
+    <t>rs661054</t>
+  </si>
+  <si>
+    <t>rs7933433</t>
+  </si>
+  <si>
+    <t>rs11221332</t>
+  </si>
+  <si>
+    <t>rs61802846</t>
+  </si>
+  <si>
+    <t>rs2476601</t>
+  </si>
+  <si>
+    <t>rs4845604</t>
+  </si>
+  <si>
+    <t>rs114202211</t>
+  </si>
+  <si>
+    <t>rs6693105</t>
+  </si>
+  <si>
+    <t>rs4971079</t>
+  </si>
+  <si>
+    <t>rs78973538</t>
+  </si>
+  <si>
+    <t>rs1333062</t>
+  </si>
+  <si>
+    <t>rs10800314</t>
+  </si>
+  <si>
+    <t>rs79568124</t>
+  </si>
+  <si>
+    <t>rs6425143</t>
+  </si>
+  <si>
+    <t>rs16841904</t>
+  </si>
+  <si>
+    <t>rs2816958</t>
+  </si>
+  <si>
+    <t>rs12131796</t>
+  </si>
+  <si>
+    <t>rs10761648</t>
+  </si>
+  <si>
+    <t>rs7915475</t>
+  </si>
+  <si>
+    <t>rs2227551</t>
+  </si>
+  <si>
+    <t>rs1250573</t>
+  </si>
+  <si>
+    <t>rs7097656</t>
+  </si>
+  <si>
+    <t>rs1800682</t>
+  </si>
+  <si>
+    <t>rs2497318</t>
+  </si>
+  <si>
+    <t>rs1569328</t>
+  </si>
+  <si>
+    <t>rs12879003</t>
+  </si>
+  <si>
+    <t>rs16967103</t>
+  </si>
+  <si>
+    <t>rs17293632</t>
+  </si>
+  <si>
+    <t>rs35874463</t>
+  </si>
+  <si>
+    <t>rs367569</t>
+  </si>
+  <si>
+    <t>rs11649613</t>
+  </si>
+  <si>
+    <t>rs8061882</t>
+  </si>
+  <si>
+    <t>rs7195296</t>
+  </si>
+  <si>
+    <t>rs7404095</t>
+  </si>
+  <si>
+    <t>rs26528</t>
+  </si>
+  <si>
+    <t>rs34670647</t>
+  </si>
+  <si>
+    <t>rs11574938</t>
+  </si>
+  <si>
+    <t>rs1870293</t>
+  </si>
+  <si>
+    <t>rs2357623</t>
+  </si>
+  <si>
+    <t>rs72796367</t>
+  </si>
+  <si>
+    <t>rs2066845</t>
+  </si>
+  <si>
+    <t>rs5743293</t>
+  </si>
+  <si>
+    <t>rs11117431</t>
+  </si>
+  <si>
+    <t>rs12932970</t>
+  </si>
+  <si>
+    <t>rs10775412</t>
+  </si>
+  <si>
+    <t>rs28998802</t>
+  </si>
+  <si>
+    <t>rs9797244</t>
+  </si>
+  <si>
+    <t>rs2779255</t>
+  </si>
+  <si>
+    <t>rs9889296</t>
+  </si>
+  <si>
+    <t>rs35736272</t>
+  </si>
+  <si>
+    <t>rs12942547</t>
+  </si>
+  <si>
+    <t>rs12943464</t>
+  </si>
+  <si>
+    <t>rs3853824</t>
+  </si>
+  <si>
+    <t>rs17229679</t>
+  </si>
+  <si>
+    <t>rs6434978</t>
+  </si>
+  <si>
+    <t>rs72871627</t>
+  </si>
+  <si>
+    <t>rs1405108</t>
+  </si>
+  <si>
+    <t>rs7426056</t>
+  </si>
+  <si>
+    <t>rs11306716</t>
+  </si>
+  <si>
+    <t>rs11676348</t>
+  </si>
+  <si>
+    <t>rs7556897</t>
+  </si>
+  <si>
+    <t>rs12694846</t>
+  </si>
+  <si>
+    <t>rs35300242</t>
+  </si>
+  <si>
+    <t>rs3749171</t>
+  </si>
+  <si>
+    <t>rs4676406</t>
+  </si>
+  <si>
+    <t>rs35320439</t>
+  </si>
+  <si>
+    <t>rs73178598</t>
+  </si>
+  <si>
+    <t>rs10510607</t>
+  </si>
+  <si>
+    <t>rs196941</t>
+  </si>
+  <si>
+    <t>rs17780256</t>
+  </si>
+  <si>
+    <t>rs1292035</t>
+  </si>
+  <si>
+    <t>rs7236492</t>
+  </si>
+  <si>
+    <t>rs12968719</t>
+  </si>
+  <si>
+    <t>rs62097857</t>
+  </si>
+  <si>
+    <t>rs66504140</t>
+  </si>
+  <si>
+    <t>rs587259</t>
+  </si>
+  <si>
+    <t>rs2024092</t>
+  </si>
+  <si>
+    <t>rs72977586</t>
+  </si>
+  <si>
+    <t>rs74956615</t>
+  </si>
+  <si>
+    <t>rs35018800</t>
+  </si>
+  <si>
+    <t>rs12720356</t>
+  </si>
+  <si>
+    <t>rs35074907</t>
+  </si>
+  <si>
+    <t>rs4802307</t>
+  </si>
+  <si>
+    <t>rs3024493</t>
+  </si>
+  <si>
+    <t>rs12075255</t>
+  </si>
+  <si>
+    <t>rs2666218</t>
+  </si>
+  <si>
+    <t>rs13407913</t>
+  </si>
+  <si>
+    <t>rs201014116</t>
+  </si>
+  <si>
+    <t>rs1260326</t>
+  </si>
+  <si>
+    <t>rs925255</t>
+  </si>
+  <si>
+    <t>rs77981966</t>
+  </si>
+  <si>
+    <t>rs7608910</t>
+  </si>
+  <si>
+    <t>rs34920465</t>
+  </si>
+  <si>
+    <t>rs11221322</t>
+  </si>
+  <si>
+    <t>rs7313895</t>
+  </si>
+  <si>
+    <t>rs11168249</t>
+  </si>
+  <si>
+    <t>rs11614178</t>
+  </si>
+  <si>
+    <t>rs12369214</t>
+  </si>
+  <si>
+    <t>rs3184504</t>
+  </si>
+  <si>
+    <t>rs17085007</t>
+  </si>
+  <si>
+    <t>rs941823</t>
+  </si>
+  <si>
+    <t>rs6561151</t>
+  </si>
+  <si>
+    <t>rs2026029</t>
+  </si>
+  <si>
+    <t>rs9554587</t>
+  </si>
+  <si>
+    <t>rs2145623</t>
+  </si>
+  <si>
+    <t>rs8006884</t>
+  </si>
+  <si>
+    <t>rs6556411</t>
+  </si>
+  <si>
+    <t>rs72812861</t>
+  </si>
+  <si>
+    <t>rs4921482</t>
+  </si>
+  <si>
+    <t>rs1267499</t>
+  </si>
+  <si>
+    <t>rs2328530</t>
+  </si>
+  <si>
+    <t>rs714830</t>
+  </si>
+  <si>
+    <t>rs71559680</t>
+  </si>
+  <si>
+    <t>rs72928038</t>
+  </si>
+  <si>
+    <t>rs1847472</t>
+  </si>
+  <si>
+    <t>rs4946717</t>
+  </si>
+  <si>
+    <t>rs28701841</t>
+  </si>
+  <si>
+    <t>rs9491891</t>
+  </si>
+  <si>
+    <t>rs582757</t>
+  </si>
+  <si>
+    <t>rs928722</t>
+  </si>
+  <si>
+    <t>rs9494840</t>
+  </si>
+  <si>
+    <t>rs2143178</t>
+  </si>
+  <si>
+    <t>rs5757584</t>
+  </si>
+  <si>
+    <t>rs140135</t>
+  </si>
+  <si>
+    <t>rs1569414</t>
+  </si>
+  <si>
+    <t>rs13388357</t>
+  </si>
+  <si>
+    <t>rs7857730</t>
+  </si>
+  <si>
+    <t>rs497871</t>
+  </si>
+  <si>
+    <t>rs61199332</t>
+  </si>
+  <si>
+    <t>rs4418214</t>
+  </si>
+  <si>
+    <t>rs4463302</t>
+  </si>
+  <si>
+    <t>rs2069835</t>
+  </si>
+  <si>
+    <t>rs2844510</t>
+  </si>
+  <si>
+    <t>rs2516514</t>
+  </si>
+  <si>
+    <t>rs6905036</t>
+  </si>
+  <si>
+    <t>rs17030062</t>
+  </si>
+  <si>
+    <t>rs76412624</t>
+  </si>
+  <si>
+    <t>rs7281081</t>
+  </si>
+  <si>
+    <t>rs1580226</t>
+  </si>
+  <si>
+    <t>rs2274894</t>
+  </si>
+  <si>
+    <t>rs7784778</t>
+  </si>
+  <si>
+    <t>rs508063</t>
+  </si>
+  <si>
+    <t>rs10171979</t>
+  </si>
+  <si>
+    <t>rs10093384</t>
+  </si>
+  <si>
+    <t>rs67412457</t>
+  </si>
+  <si>
+    <t>rs9947182</t>
+  </si>
+  <si>
+    <t>rs30187 x rs116488202</t>
+  </si>
+  <si>
+    <t>rs10045403 x rs116488202</t>
+  </si>
+  <si>
+    <t>rs115879499</t>
+  </si>
+  <si>
+    <t>rs2032890</t>
+  </si>
+  <si>
+    <t>rs55688811</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.000%"/>
+    <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -365,7 +1518,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -389,7 +1542,38 @@
     <cellStyle name="一般 2" xfId="2" xr:uid="{8C8C6BDC-2D58-4418-A0BD-89873430CB24}"/>
     <cellStyle name="一般 3" xfId="1" xr:uid="{104783E6-E13F-4C05-B430-1C85F000E792}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -701,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B141AFE-70C6-4881-AC9F-CC763A5EE5B5}">
   <dimension ref="A1:Y1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y1" sqref="Y1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -786,4 +1970,7063 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC08FCE-14AD-40D4-BD2F-5DB938F7CDD5}">
+  <dimension ref="A1:G947"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A348" workbookViewId="0">
+      <selection activeCell="G357" sqref="G357"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" t="s">
+        <v>90</v>
+      </c>
+      <c r="G14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>93</v>
+      </c>
+      <c r="G17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>98</v>
+      </c>
+      <c r="C22" t="s">
+        <v>98</v>
+      </c>
+      <c r="G22" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>101</v>
+      </c>
+      <c r="C25" t="s">
+        <v>101</v>
+      </c>
+      <c r="G25" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" t="s">
+        <v>47</v>
+      </c>
+      <c r="G31" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>393</v>
+      </c>
+      <c r="C33" t="s">
+        <v>393</v>
+      </c>
+      <c r="G33" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>394</v>
+      </c>
+      <c r="C34" t="s">
+        <v>394</v>
+      </c>
+      <c r="G34" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>395</v>
+      </c>
+      <c r="C35" t="s">
+        <v>395</v>
+      </c>
+      <c r="G35" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>396</v>
+      </c>
+      <c r="C36" t="s">
+        <v>396</v>
+      </c>
+      <c r="G36" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>397</v>
+      </c>
+      <c r="C37" t="s">
+        <v>397</v>
+      </c>
+      <c r="G37" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>398</v>
+      </c>
+      <c r="C38" t="s">
+        <v>398</v>
+      </c>
+      <c r="G38" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>399</v>
+      </c>
+      <c r="C39" t="s">
+        <v>399</v>
+      </c>
+      <c r="G39" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>400</v>
+      </c>
+      <c r="C40" t="s">
+        <v>400</v>
+      </c>
+      <c r="G40" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>96</v>
+      </c>
+      <c r="C41" t="s">
+        <v>401</v>
+      </c>
+      <c r="G41" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>401</v>
+      </c>
+      <c r="C42" t="s">
+        <v>402</v>
+      </c>
+      <c r="G42" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>402</v>
+      </c>
+      <c r="C43" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" t="s">
+        <v>39</v>
+      </c>
+      <c r="G45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" t="s">
+        <v>41</v>
+      </c>
+      <c r="G47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C49" t="s">
+        <v>43</v>
+      </c>
+      <c r="G49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+      <c r="G50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" t="s">
+        <v>37</v>
+      </c>
+      <c r="G51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" t="s">
+        <v>34</v>
+      </c>
+      <c r="G52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" t="s">
+        <v>313</v>
+      </c>
+      <c r="G54" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="C55" t="s">
+        <v>314</v>
+      </c>
+      <c r="G55" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" t="s">
+        <v>315</v>
+      </c>
+      <c r="G56" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>313</v>
+      </c>
+      <c r="C57" t="s">
+        <v>316</v>
+      </c>
+      <c r="G57" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>314</v>
+      </c>
+      <c r="C58" t="s">
+        <v>317</v>
+      </c>
+      <c r="G58" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>315</v>
+      </c>
+      <c r="C59" t="s">
+        <v>318</v>
+      </c>
+      <c r="G59" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>316</v>
+      </c>
+      <c r="C60" t="s">
+        <v>319</v>
+      </c>
+      <c r="G60" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>317</v>
+      </c>
+      <c r="C61" t="s">
+        <v>320</v>
+      </c>
+      <c r="G61" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>318</v>
+      </c>
+      <c r="C62" t="s">
+        <v>321</v>
+      </c>
+      <c r="G62" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>319</v>
+      </c>
+      <c r="C63" t="s">
+        <v>322</v>
+      </c>
+      <c r="G63" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>320</v>
+      </c>
+      <c r="C64" t="s">
+        <v>323</v>
+      </c>
+      <c r="G64" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>321</v>
+      </c>
+      <c r="C65" t="s">
+        <v>324</v>
+      </c>
+      <c r="G65" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>322</v>
+      </c>
+      <c r="C66" t="s">
+        <v>149</v>
+      </c>
+      <c r="G66" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>323</v>
+      </c>
+      <c r="C67" t="s">
+        <v>147</v>
+      </c>
+      <c r="G67" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>324</v>
+      </c>
+      <c r="C68" t="s">
+        <v>148</v>
+      </c>
+      <c r="G68" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" t="s">
+        <v>150</v>
+      </c>
+      <c r="G69" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" t="s">
+        <v>151</v>
+      </c>
+      <c r="G70" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" t="s">
+        <v>152</v>
+      </c>
+      <c r="G71" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" t="s">
+        <v>153</v>
+      </c>
+      <c r="G72" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" t="s">
+        <v>154</v>
+      </c>
+      <c r="G73" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" t="s">
+        <v>155</v>
+      </c>
+      <c r="G74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>153</v>
+      </c>
+      <c r="C75" t="s">
+        <v>156</v>
+      </c>
+      <c r="G75" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" t="s">
+        <v>157</v>
+      </c>
+      <c r="G76" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="s">
+        <v>158</v>
+      </c>
+      <c r="G77" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" t="s">
+        <v>159</v>
+      </c>
+      <c r="G78" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" t="s">
+        <v>188</v>
+      </c>
+      <c r="G79" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>158</v>
+      </c>
+      <c r="C80" t="s">
+        <v>189</v>
+      </c>
+      <c r="G80" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" t="s">
+        <v>190</v>
+      </c>
+      <c r="G81" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>188</v>
+      </c>
+      <c r="C82" t="s">
+        <v>191</v>
+      </c>
+      <c r="G82" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>189</v>
+      </c>
+      <c r="C83" t="s">
+        <v>192</v>
+      </c>
+      <c r="G83" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>190</v>
+      </c>
+      <c r="C84" t="s">
+        <v>193</v>
+      </c>
+      <c r="G84" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>191</v>
+      </c>
+      <c r="C85" t="s">
+        <v>194</v>
+      </c>
+      <c r="G85" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>192</v>
+      </c>
+      <c r="C86" t="s">
+        <v>195</v>
+      </c>
+      <c r="G86" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>193</v>
+      </c>
+      <c r="C87" t="s">
+        <v>196</v>
+      </c>
+      <c r="G87" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>194</v>
+      </c>
+      <c r="C88" t="s">
+        <v>197</v>
+      </c>
+      <c r="G88" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>195</v>
+      </c>
+      <c r="C89" t="s">
+        <v>198</v>
+      </c>
+      <c r="G89" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>196</v>
+      </c>
+      <c r="C90" t="s">
+        <v>199</v>
+      </c>
+      <c r="G90" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>197</v>
+      </c>
+      <c r="C91" t="s">
+        <v>200</v>
+      </c>
+      <c r="G91" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>198</v>
+      </c>
+      <c r="C92" t="s">
+        <v>201</v>
+      </c>
+      <c r="G92" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>199</v>
+      </c>
+      <c r="C93" t="s">
+        <v>202</v>
+      </c>
+      <c r="G93" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>200</v>
+      </c>
+      <c r="C94" t="s">
+        <v>203</v>
+      </c>
+      <c r="G94" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>201</v>
+      </c>
+      <c r="C95" t="s">
+        <v>204</v>
+      </c>
+      <c r="G95" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>202</v>
+      </c>
+      <c r="C96" t="s">
+        <v>205</v>
+      </c>
+      <c r="G96" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>203</v>
+      </c>
+      <c r="C97" t="s">
+        <v>275</v>
+      </c>
+      <c r="G97" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>204</v>
+      </c>
+      <c r="C98" t="s">
+        <v>276</v>
+      </c>
+      <c r="G98" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>205</v>
+      </c>
+      <c r="C99" t="s">
+        <v>277</v>
+      </c>
+      <c r="G99" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>275</v>
+      </c>
+      <c r="C100" t="s">
+        <v>278</v>
+      </c>
+      <c r="G100" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>276</v>
+      </c>
+      <c r="C101" t="s">
+        <v>279</v>
+      </c>
+      <c r="G101" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>277</v>
+      </c>
+      <c r="C102" t="s">
+        <v>280</v>
+      </c>
+      <c r="G102" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>278</v>
+      </c>
+      <c r="C103" t="s">
+        <v>246</v>
+      </c>
+      <c r="G103" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>279</v>
+      </c>
+      <c r="C104" t="s">
+        <v>371</v>
+      </c>
+      <c r="G104" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>280</v>
+      </c>
+      <c r="C105" t="s">
+        <v>372</v>
+      </c>
+      <c r="G105" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>246</v>
+      </c>
+      <c r="C106" t="s">
+        <v>373</v>
+      </c>
+      <c r="G106" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>371</v>
+      </c>
+      <c r="C107" t="s">
+        <v>374</v>
+      </c>
+      <c r="G107" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>372</v>
+      </c>
+      <c r="C108" t="s">
+        <v>375</v>
+      </c>
+      <c r="G108" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>373</v>
+      </c>
+      <c r="C109" t="s">
+        <v>376</v>
+      </c>
+      <c r="G109" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>374</v>
+      </c>
+      <c r="C110" t="s">
+        <v>377</v>
+      </c>
+      <c r="G110" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>375</v>
+      </c>
+      <c r="C111" t="s">
+        <v>171</v>
+      </c>
+      <c r="G111" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>376</v>
+      </c>
+      <c r="C112" t="s">
+        <v>172</v>
+      </c>
+      <c r="G112" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>377</v>
+      </c>
+      <c r="C113" t="s">
+        <v>173</v>
+      </c>
+      <c r="G113" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>171</v>
+      </c>
+      <c r="C114" t="s">
+        <v>174</v>
+      </c>
+      <c r="G114" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>172</v>
+      </c>
+      <c r="C115" t="s">
+        <v>175</v>
+      </c>
+      <c r="G115" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>173</v>
+      </c>
+      <c r="C116" t="s">
+        <v>176</v>
+      </c>
+      <c r="G116" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>174</v>
+      </c>
+      <c r="C117" t="s">
+        <v>177</v>
+      </c>
+      <c r="G117" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>175</v>
+      </c>
+      <c r="C118" t="s">
+        <v>178</v>
+      </c>
+      <c r="G118" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>176</v>
+      </c>
+      <c r="C119" t="s">
+        <v>179</v>
+      </c>
+      <c r="G119" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>177</v>
+      </c>
+      <c r="C120" t="s">
+        <v>180</v>
+      </c>
+      <c r="G120" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>178</v>
+      </c>
+      <c r="C121" t="s">
+        <v>181</v>
+      </c>
+      <c r="G121" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>179</v>
+      </c>
+      <c r="C122" t="s">
+        <v>182</v>
+      </c>
+      <c r="G122" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>180</v>
+      </c>
+      <c r="C123" t="s">
+        <v>183</v>
+      </c>
+      <c r="G123" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>181</v>
+      </c>
+      <c r="C124" t="s">
+        <v>184</v>
+      </c>
+      <c r="G124" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>182</v>
+      </c>
+      <c r="C125" t="s">
+        <v>187</v>
+      </c>
+      <c r="G125" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>183</v>
+      </c>
+      <c r="C126" t="s">
+        <v>185</v>
+      </c>
+      <c r="G126" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>184</v>
+      </c>
+      <c r="C127" t="s">
+        <v>186</v>
+      </c>
+      <c r="G127" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>187</v>
+      </c>
+      <c r="C128" t="s">
+        <v>160</v>
+      </c>
+      <c r="G128" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>185</v>
+      </c>
+      <c r="C129" t="s">
+        <v>161</v>
+      </c>
+      <c r="G129" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>186</v>
+      </c>
+      <c r="C130" t="s">
+        <v>223</v>
+      </c>
+      <c r="G130" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>160</v>
+      </c>
+      <c r="C131" t="s">
+        <v>221</v>
+      </c>
+      <c r="G131" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>161</v>
+      </c>
+      <c r="C132" t="s">
+        <v>222</v>
+      </c>
+      <c r="G132" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>223</v>
+      </c>
+      <c r="C133" t="s">
+        <v>224</v>
+      </c>
+      <c r="G133" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>221</v>
+      </c>
+      <c r="C134" t="s">
+        <v>225</v>
+      </c>
+      <c r="G134" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>222</v>
+      </c>
+      <c r="C135" t="s">
+        <v>49</v>
+      </c>
+      <c r="G135" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>224</v>
+      </c>
+      <c r="C136" t="s">
+        <v>226</v>
+      </c>
+      <c r="G136" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>225</v>
+      </c>
+      <c r="C137" t="s">
+        <v>227</v>
+      </c>
+      <c r="G137" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>49</v>
+      </c>
+      <c r="C138" t="s">
+        <v>228</v>
+      </c>
+      <c r="G138" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>226</v>
+      </c>
+      <c r="C139" t="s">
+        <v>229</v>
+      </c>
+      <c r="G139" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>227</v>
+      </c>
+      <c r="C140" t="s">
+        <v>230</v>
+      </c>
+      <c r="G140" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>228</v>
+      </c>
+      <c r="C141" t="s">
+        <v>231</v>
+      </c>
+      <c r="G141" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>229</v>
+      </c>
+      <c r="C142" t="s">
+        <v>232</v>
+      </c>
+      <c r="G142" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>230</v>
+      </c>
+      <c r="C143" t="s">
+        <v>233</v>
+      </c>
+      <c r="G143" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>231</v>
+      </c>
+      <c r="C144" t="s">
+        <v>234</v>
+      </c>
+      <c r="G144" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>232</v>
+      </c>
+      <c r="C145" t="s">
+        <v>365</v>
+      </c>
+      <c r="G145" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>233</v>
+      </c>
+      <c r="C146" t="s">
+        <v>363</v>
+      </c>
+      <c r="G146" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>234</v>
+      </c>
+      <c r="C147" t="s">
+        <v>364</v>
+      </c>
+      <c r="G147" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>365</v>
+      </c>
+      <c r="C148" t="s">
+        <v>366</v>
+      </c>
+      <c r="G148" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>363</v>
+      </c>
+      <c r="C149" t="s">
+        <v>367</v>
+      </c>
+      <c r="G149" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>364</v>
+      </c>
+      <c r="C150" t="s">
+        <v>368</v>
+      </c>
+      <c r="G150" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>366</v>
+      </c>
+      <c r="C151" t="s">
+        <v>369</v>
+      </c>
+      <c r="G151" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>367</v>
+      </c>
+      <c r="C152" t="s">
+        <v>370</v>
+      </c>
+      <c r="G152" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>368</v>
+      </c>
+      <c r="C153" t="s">
+        <v>349</v>
+      </c>
+      <c r="G153" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>369</v>
+      </c>
+      <c r="C154" t="s">
+        <v>241</v>
+      </c>
+      <c r="G154" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>370</v>
+      </c>
+      <c r="C155" t="s">
+        <v>235</v>
+      </c>
+      <c r="G155" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>349</v>
+      </c>
+      <c r="C156" t="s">
+        <v>236</v>
+      </c>
+      <c r="G156" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>241</v>
+      </c>
+      <c r="C157" t="s">
+        <v>237</v>
+      </c>
+      <c r="G157" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>235</v>
+      </c>
+      <c r="C158" t="s">
+        <v>238</v>
+      </c>
+      <c r="G158" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>236</v>
+      </c>
+      <c r="C159" t="s">
+        <v>239</v>
+      </c>
+      <c r="G159" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>237</v>
+      </c>
+      <c r="C160" t="s">
+        <v>240</v>
+      </c>
+      <c r="G160" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>238</v>
+      </c>
+      <c r="C161" t="s">
+        <v>72</v>
+      </c>
+      <c r="G161" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>239</v>
+      </c>
+      <c r="C162" t="s">
+        <v>242</v>
+      </c>
+      <c r="G162" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>240</v>
+      </c>
+      <c r="C163" t="s">
+        <v>243</v>
+      </c>
+      <c r="G163" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>72</v>
+      </c>
+      <c r="C164" t="s">
+        <v>244</v>
+      </c>
+      <c r="G164" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>242</v>
+      </c>
+      <c r="C165" t="s">
+        <v>245</v>
+      </c>
+      <c r="G165" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>243</v>
+      </c>
+      <c r="C166" t="s">
+        <v>261</v>
+      </c>
+      <c r="G166" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>244</v>
+      </c>
+      <c r="C167" t="s">
+        <v>263</v>
+      </c>
+      <c r="G167" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>245</v>
+      </c>
+      <c r="C168" t="s">
+        <v>262</v>
+      </c>
+      <c r="G168" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>261</v>
+      </c>
+      <c r="C169" t="s">
+        <v>264</v>
+      </c>
+      <c r="G169" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>263</v>
+      </c>
+      <c r="C170" t="s">
+        <v>56</v>
+      </c>
+      <c r="G170" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>262</v>
+      </c>
+      <c r="C171" t="s">
+        <v>265</v>
+      </c>
+      <c r="G171" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>264</v>
+      </c>
+      <c r="C172" t="s">
+        <v>266</v>
+      </c>
+      <c r="G172" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>56</v>
+      </c>
+      <c r="C173" t="s">
+        <v>267</v>
+      </c>
+      <c r="G173" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>265</v>
+      </c>
+      <c r="C174" t="s">
+        <v>268</v>
+      </c>
+      <c r="G174" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>266</v>
+      </c>
+      <c r="C175" t="s">
+        <v>260</v>
+      </c>
+      <c r="G175" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>267</v>
+      </c>
+      <c r="C176" t="s">
+        <v>269</v>
+      </c>
+      <c r="G176" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>268</v>
+      </c>
+      <c r="C177" t="s">
+        <v>270</v>
+      </c>
+      <c r="G177" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>260</v>
+      </c>
+      <c r="C178" t="s">
+        <v>271</v>
+      </c>
+      <c r="G178" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>269</v>
+      </c>
+      <c r="C179" t="s">
+        <v>272</v>
+      </c>
+      <c r="G179" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>270</v>
+      </c>
+      <c r="C180" t="s">
+        <v>273</v>
+      </c>
+      <c r="G180" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>271</v>
+      </c>
+      <c r="C181" t="s">
+        <v>340</v>
+      </c>
+      <c r="G181" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>272</v>
+      </c>
+      <c r="C182" t="s">
+        <v>341</v>
+      </c>
+      <c r="G182" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>273</v>
+      </c>
+      <c r="C183" t="s">
+        <v>342</v>
+      </c>
+      <c r="G183" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>340</v>
+      </c>
+      <c r="C184" t="s">
+        <v>343</v>
+      </c>
+      <c r="G184" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>341</v>
+      </c>
+      <c r="C185" t="s">
+        <v>344</v>
+      </c>
+      <c r="G185" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>342</v>
+      </c>
+      <c r="C186" t="s">
+        <v>345</v>
+      </c>
+      <c r="G186" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>343</v>
+      </c>
+      <c r="C187" t="s">
+        <v>346</v>
+      </c>
+      <c r="G187" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>344</v>
+      </c>
+      <c r="C188" t="s">
+        <v>347</v>
+      </c>
+      <c r="G188" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>345</v>
+      </c>
+      <c r="C189" t="s">
+        <v>348</v>
+      </c>
+      <c r="G189" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>346</v>
+      </c>
+      <c r="C190" t="s">
+        <v>162</v>
+      </c>
+      <c r="G190" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>347</v>
+      </c>
+      <c r="C191" t="s">
+        <v>164</v>
+      </c>
+      <c r="G191" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>348</v>
+      </c>
+      <c r="C192" t="s">
+        <v>163</v>
+      </c>
+      <c r="G192" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>162</v>
+      </c>
+      <c r="C193" t="s">
+        <v>69</v>
+      </c>
+      <c r="G193" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>164</v>
+      </c>
+      <c r="C194" t="s">
+        <v>165</v>
+      </c>
+      <c r="G194" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>163</v>
+      </c>
+      <c r="C195" t="s">
+        <v>166</v>
+      </c>
+      <c r="G195" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>69</v>
+      </c>
+      <c r="C196" t="s">
+        <v>167</v>
+      </c>
+      <c r="G196" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>165</v>
+      </c>
+      <c r="C197" t="s">
+        <v>168</v>
+      </c>
+      <c r="G197" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>166</v>
+      </c>
+      <c r="C198" t="s">
+        <v>169</v>
+      </c>
+      <c r="G198" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>167</v>
+      </c>
+      <c r="C199" t="s">
+        <v>170</v>
+      </c>
+      <c r="G199" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>168</v>
+      </c>
+      <c r="C200" t="s">
+        <v>312</v>
+      </c>
+      <c r="G200" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>169</v>
+      </c>
+      <c r="C201" t="s">
+        <v>310</v>
+      </c>
+      <c r="G201" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>170</v>
+      </c>
+      <c r="C202" t="s">
+        <v>311</v>
+      </c>
+      <c r="G202" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>312</v>
+      </c>
+      <c r="C203" t="s">
+        <v>359</v>
+      </c>
+      <c r="G203" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>310</v>
+      </c>
+      <c r="C204" t="s">
+        <v>360</v>
+      </c>
+      <c r="G204" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>311</v>
+      </c>
+      <c r="C205" t="s">
+        <v>361</v>
+      </c>
+      <c r="G205" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>359</v>
+      </c>
+      <c r="C206" t="s">
+        <v>362</v>
+      </c>
+      <c r="G206" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>360</v>
+      </c>
+      <c r="C207" t="s">
+        <v>282</v>
+      </c>
+      <c r="G207" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>361</v>
+      </c>
+      <c r="C208" t="s">
+        <v>281</v>
+      </c>
+      <c r="G208" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>362</v>
+      </c>
+      <c r="C209" t="s">
+        <v>64</v>
+      </c>
+      <c r="G209" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>282</v>
+      </c>
+      <c r="C210" t="s">
+        <v>283</v>
+      </c>
+      <c r="G210" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>281</v>
+      </c>
+      <c r="C211" t="s">
+        <v>284</v>
+      </c>
+      <c r="G211" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>64</v>
+      </c>
+      <c r="C212" t="s">
+        <v>285</v>
+      </c>
+      <c r="G212" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>283</v>
+      </c>
+      <c r="C213" t="s">
+        <v>286</v>
+      </c>
+      <c r="G213" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>284</v>
+      </c>
+      <c r="C214" t="s">
+        <v>287</v>
+      </c>
+      <c r="G214" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>285</v>
+      </c>
+      <c r="C215" t="s">
+        <v>288</v>
+      </c>
+      <c r="G215" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>286</v>
+      </c>
+      <c r="C216" t="s">
+        <v>289</v>
+      </c>
+      <c r="G216" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>287</v>
+      </c>
+      <c r="C217" t="s">
+        <v>290</v>
+      </c>
+      <c r="G217" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>288</v>
+      </c>
+      <c r="C218" t="s">
+        <v>291</v>
+      </c>
+      <c r="G218" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>289</v>
+      </c>
+      <c r="C219" t="s">
+        <v>292</v>
+      </c>
+      <c r="G219" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>290</v>
+      </c>
+      <c r="C220" t="s">
+        <v>293</v>
+      </c>
+      <c r="G220" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>291</v>
+      </c>
+      <c r="C221" t="s">
+        <v>294</v>
+      </c>
+      <c r="G221" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>292</v>
+      </c>
+      <c r="C222" t="s">
+        <v>297</v>
+      </c>
+      <c r="G222" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>293</v>
+      </c>
+      <c r="C223" t="s">
+        <v>295</v>
+      </c>
+      <c r="G223" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>294</v>
+      </c>
+      <c r="C224" t="s">
+        <v>296</v>
+      </c>
+      <c r="G224" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>297</v>
+      </c>
+      <c r="C225" t="s">
+        <v>298</v>
+      </c>
+      <c r="G225" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>295</v>
+      </c>
+      <c r="C226" t="s">
+        <v>299</v>
+      </c>
+      <c r="G226" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>296</v>
+      </c>
+      <c r="C227" t="s">
+        <v>300</v>
+      </c>
+      <c r="G227" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>298</v>
+      </c>
+      <c r="C228" t="s">
+        <v>62</v>
+      </c>
+      <c r="G228" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>299</v>
+      </c>
+      <c r="C229" t="s">
+        <v>247</v>
+      </c>
+      <c r="G229" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>300</v>
+      </c>
+      <c r="C230" t="s">
+        <v>248</v>
+      </c>
+      <c r="G230" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>62</v>
+      </c>
+      <c r="C231" t="s">
+        <v>249</v>
+      </c>
+      <c r="G231" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>247</v>
+      </c>
+      <c r="C232" t="s">
+        <v>250</v>
+      </c>
+      <c r="G232" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>248</v>
+      </c>
+      <c r="C233" t="s">
+        <v>251</v>
+      </c>
+      <c r="G233" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>249</v>
+      </c>
+      <c r="C234" t="s">
+        <v>252</v>
+      </c>
+      <c r="G234" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>250</v>
+      </c>
+      <c r="C235" t="s">
+        <v>253</v>
+      </c>
+      <c r="G235" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>251</v>
+      </c>
+      <c r="C236" t="s">
+        <v>254</v>
+      </c>
+      <c r="G236" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>252</v>
+      </c>
+      <c r="C237" t="s">
+        <v>255</v>
+      </c>
+      <c r="G237" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>253</v>
+      </c>
+      <c r="C238" t="s">
+        <v>256</v>
+      </c>
+      <c r="G238" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>254</v>
+      </c>
+      <c r="C239" t="s">
+        <v>257</v>
+      </c>
+      <c r="G239" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>255</v>
+      </c>
+      <c r="C240" t="s">
+        <v>258</v>
+      </c>
+      <c r="G240" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>256</v>
+      </c>
+      <c r="C241" t="s">
+        <v>259</v>
+      </c>
+      <c r="G241" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>257</v>
+      </c>
+      <c r="C242" t="s">
+        <v>350</v>
+      </c>
+      <c r="G242" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>258</v>
+      </c>
+      <c r="C243" t="s">
+        <v>77</v>
+      </c>
+      <c r="G243" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>259</v>
+      </c>
+      <c r="C244" t="s">
+        <v>351</v>
+      </c>
+      <c r="G244" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>350</v>
+      </c>
+      <c r="C245" t="s">
+        <v>352</v>
+      </c>
+      <c r="G245" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>77</v>
+      </c>
+      <c r="C246" t="s">
+        <v>353</v>
+      </c>
+      <c r="G246" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>39</v>
+      </c>
+      <c r="C247" t="s">
+        <v>354</v>
+      </c>
+      <c r="G247" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>351</v>
+      </c>
+      <c r="C248" t="s">
+        <v>355</v>
+      </c>
+      <c r="G248" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>352</v>
+      </c>
+      <c r="C249" t="s">
+        <v>356</v>
+      </c>
+      <c r="G249" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>353</v>
+      </c>
+      <c r="C250" t="s">
+        <v>357</v>
+      </c>
+      <c r="G250" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>354</v>
+      </c>
+      <c r="C251" t="s">
+        <v>358</v>
+      </c>
+      <c r="G251" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>355</v>
+      </c>
+      <c r="C252" t="s">
+        <v>301</v>
+      </c>
+      <c r="G252" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>356</v>
+      </c>
+      <c r="C253" t="s">
+        <v>302</v>
+      </c>
+      <c r="G253" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>357</v>
+      </c>
+      <c r="C254" t="s">
+        <v>303</v>
+      </c>
+      <c r="G254" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>358</v>
+      </c>
+      <c r="C255" t="s">
+        <v>304</v>
+      </c>
+      <c r="G255" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>301</v>
+      </c>
+      <c r="C256" t="s">
+        <v>305</v>
+      </c>
+      <c r="G256" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>302</v>
+      </c>
+      <c r="C257" t="s">
+        <v>306</v>
+      </c>
+      <c r="G257" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>303</v>
+      </c>
+      <c r="C258" t="s">
+        <v>307</v>
+      </c>
+      <c r="G258" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>304</v>
+      </c>
+      <c r="C259" t="s">
+        <v>308</v>
+      </c>
+      <c r="G259" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>305</v>
+      </c>
+      <c r="C260" t="s">
+        <v>309</v>
+      </c>
+      <c r="G260" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>306</v>
+      </c>
+      <c r="C261" t="s">
+        <v>327</v>
+      </c>
+      <c r="G261" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>307</v>
+      </c>
+      <c r="C262" t="s">
+        <v>325</v>
+      </c>
+      <c r="G262" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>308</v>
+      </c>
+      <c r="C263" t="s">
+        <v>326</v>
+      </c>
+      <c r="G263" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>309</v>
+      </c>
+      <c r="C264" t="s">
+        <v>328</v>
+      </c>
+      <c r="G264" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>327</v>
+      </c>
+      <c r="C265" t="s">
+        <v>329</v>
+      </c>
+      <c r="G265" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>325</v>
+      </c>
+      <c r="C266" t="s">
+        <v>330</v>
+      </c>
+      <c r="G266" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>326</v>
+      </c>
+      <c r="C267" t="s">
+        <v>331</v>
+      </c>
+      <c r="G267" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>328</v>
+      </c>
+      <c r="C268" t="s">
+        <v>332</v>
+      </c>
+      <c r="G268" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>329</v>
+      </c>
+      <c r="C269" t="s">
+        <v>333</v>
+      </c>
+      <c r="G269" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>330</v>
+      </c>
+      <c r="C270" t="s">
+        <v>334</v>
+      </c>
+      <c r="G270" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>331</v>
+      </c>
+      <c r="C271" t="s">
+        <v>335</v>
+      </c>
+      <c r="G271" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>332</v>
+      </c>
+      <c r="C272" t="s">
+        <v>336</v>
+      </c>
+      <c r="G272" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>333</v>
+      </c>
+      <c r="C273" t="s">
+        <v>337</v>
+      </c>
+      <c r="G273" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>334</v>
+      </c>
+      <c r="C274" t="s">
+        <v>338</v>
+      </c>
+      <c r="G274" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>335</v>
+      </c>
+      <c r="C275" t="s">
+        <v>339</v>
+      </c>
+      <c r="G275" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>336</v>
+      </c>
+      <c r="C276" t="s">
+        <v>209</v>
+      </c>
+      <c r="G276" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>337</v>
+      </c>
+      <c r="C277" t="s">
+        <v>206</v>
+      </c>
+      <c r="G277" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>338</v>
+      </c>
+      <c r="C278" t="s">
+        <v>208</v>
+      </c>
+      <c r="G278" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>339</v>
+      </c>
+      <c r="C279" t="s">
+        <v>210</v>
+      </c>
+      <c r="G279" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>209</v>
+      </c>
+      <c r="C280" t="s">
+        <v>211</v>
+      </c>
+      <c r="G280" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>206</v>
+      </c>
+      <c r="C281" t="s">
+        <v>212</v>
+      </c>
+      <c r="G281" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>208</v>
+      </c>
+      <c r="C282" t="s">
+        <v>213</v>
+      </c>
+      <c r="G282" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>210</v>
+      </c>
+      <c r="C283" t="s">
+        <v>214</v>
+      </c>
+      <c r="G283" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>211</v>
+      </c>
+      <c r="C284" t="s">
+        <v>215</v>
+      </c>
+      <c r="G284" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>212</v>
+      </c>
+      <c r="C285" t="s">
+        <v>207</v>
+      </c>
+      <c r="G285" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>213</v>
+      </c>
+      <c r="C286" t="s">
+        <v>216</v>
+      </c>
+      <c r="G286" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>214</v>
+      </c>
+      <c r="C287" t="s">
+        <v>217</v>
+      </c>
+      <c r="G287" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>215</v>
+      </c>
+      <c r="C288" t="s">
+        <v>218</v>
+      </c>
+      <c r="G288" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>207</v>
+      </c>
+      <c r="C289" t="s">
+        <v>219</v>
+      </c>
+      <c r="G289" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>216</v>
+      </c>
+      <c r="C290" t="s">
+        <v>220</v>
+      </c>
+      <c r="G290" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>217</v>
+      </c>
+      <c r="C291" t="s">
+        <v>380</v>
+      </c>
+      <c r="G291" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>218</v>
+      </c>
+      <c r="C292" t="s">
+        <v>378</v>
+      </c>
+      <c r="G292" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>219</v>
+      </c>
+      <c r="C293" t="s">
+        <v>379</v>
+      </c>
+      <c r="G293" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>220</v>
+      </c>
+      <c r="C294" t="s">
+        <v>381</v>
+      </c>
+      <c r="G294" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>380</v>
+      </c>
+      <c r="C295" t="s">
+        <v>274</v>
+      </c>
+      <c r="G295" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>378</v>
+      </c>
+      <c r="C296" t="s">
+        <v>63</v>
+      </c>
+      <c r="G296" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>379</v>
+      </c>
+      <c r="C297" t="s">
+        <v>50</v>
+      </c>
+      <c r="G297" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>381</v>
+      </c>
+      <c r="C298" t="s">
+        <v>66</v>
+      </c>
+      <c r="G298" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>274</v>
+      </c>
+      <c r="C299" t="s">
+        <v>52</v>
+      </c>
+      <c r="G299" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>63</v>
+      </c>
+      <c r="C300" t="s">
+        <v>70</v>
+      </c>
+      <c r="G300" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>49</v>
+      </c>
+      <c r="C301" t="s">
+        <v>71</v>
+      </c>
+      <c r="G301" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>50</v>
+      </c>
+      <c r="C302" t="s">
+        <v>79</v>
+      </c>
+      <c r="G302" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>66</v>
+      </c>
+      <c r="C303" t="s">
+        <v>80</v>
+      </c>
+      <c r="G303" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>52</v>
+      </c>
+      <c r="C304" t="s">
+        <v>78</v>
+      </c>
+      <c r="G304" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>72</v>
+      </c>
+      <c r="C305" t="s">
+        <v>82</v>
+      </c>
+      <c r="G305" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>24</v>
+      </c>
+      <c r="C306" t="s">
+        <v>59</v>
+      </c>
+      <c r="G306" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>70</v>
+      </c>
+      <c r="C307" t="s">
+        <v>60</v>
+      </c>
+      <c r="G307" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>71</v>
+      </c>
+      <c r="C308" t="s">
+        <v>61</v>
+      </c>
+      <c r="G308" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>79</v>
+      </c>
+      <c r="C309" t="s">
+        <v>74</v>
+      </c>
+      <c r="G309" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>80</v>
+      </c>
+      <c r="C310" t="s">
+        <v>75</v>
+      </c>
+      <c r="G310" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>78</v>
+      </c>
+      <c r="C311" t="s">
+        <v>76</v>
+      </c>
+      <c r="G311" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>82</v>
+      </c>
+      <c r="C312" t="s">
+        <v>55</v>
+      </c>
+      <c r="G312" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>72</v>
+      </c>
+      <c r="C313" t="s">
+        <v>54</v>
+      </c>
+      <c r="G313" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>24</v>
+      </c>
+      <c r="C314" t="s">
+        <v>53</v>
+      </c>
+      <c r="G314" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>59</v>
+      </c>
+      <c r="C315" t="s">
+        <v>65</v>
+      </c>
+      <c r="G315" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>60</v>
+      </c>
+      <c r="C316" t="s">
+        <v>51</v>
+      </c>
+      <c r="G316" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>61</v>
+      </c>
+      <c r="C317" t="s">
+        <v>67</v>
+      </c>
+      <c r="G317" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>74</v>
+      </c>
+      <c r="C318" t="s">
+        <v>68</v>
+      </c>
+      <c r="G318" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>37</v>
+      </c>
+      <c r="C319" t="s">
+        <v>73</v>
+      </c>
+      <c r="G319" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>75</v>
+      </c>
+      <c r="C320" t="s">
+        <v>81</v>
+      </c>
+      <c r="G320" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>76</v>
+      </c>
+      <c r="C321" t="s">
+        <v>57</v>
+      </c>
+      <c r="G321" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>77</v>
+      </c>
+      <c r="C322" t="s">
+        <v>58</v>
+      </c>
+      <c r="G322" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>78</v>
+      </c>
+      <c r="C323" t="s">
+        <v>83</v>
+      </c>
+      <c r="G323" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>55</v>
+      </c>
+      <c r="C324" t="s">
+        <v>403</v>
+      </c>
+      <c r="G324" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>54</v>
+      </c>
+      <c r="C325" t="s">
+        <v>404</v>
+      </c>
+      <c r="G325" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>53</v>
+      </c>
+      <c r="C326" t="s">
+        <v>405</v>
+      </c>
+      <c r="G326" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>64</v>
+      </c>
+      <c r="C327" t="s">
+        <v>406</v>
+      </c>
+      <c r="G327" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>38</v>
+      </c>
+      <c r="C328" t="s">
+        <v>112</v>
+      </c>
+      <c r="G328" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>65</v>
+      </c>
+      <c r="C329" t="s">
+        <v>113</v>
+      </c>
+      <c r="G329" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>51</v>
+      </c>
+      <c r="C330" t="s">
+        <v>114</v>
+      </c>
+      <c r="G330" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>67</v>
+      </c>
+      <c r="C331" t="s">
+        <v>115</v>
+      </c>
+      <c r="G331" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>68</v>
+      </c>
+      <c r="C332" t="s">
+        <v>116</v>
+      </c>
+      <c r="G332" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>69</v>
+      </c>
+      <c r="C333" t="s">
+        <v>143</v>
+      </c>
+      <c r="G333" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>73</v>
+      </c>
+      <c r="C334" t="s">
+        <v>144</v>
+      </c>
+      <c r="G334" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>52</v>
+      </c>
+      <c r="C335" t="s">
+        <v>145</v>
+      </c>
+      <c r="G335" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>74</v>
+      </c>
+      <c r="C336" t="s">
+        <v>146</v>
+      </c>
+      <c r="G336" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>37</v>
+      </c>
+      <c r="C337" t="s">
+        <v>131</v>
+      </c>
+      <c r="G337" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>75</v>
+      </c>
+      <c r="C338" t="s">
+        <v>132</v>
+      </c>
+      <c r="G338" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>76</v>
+      </c>
+      <c r="C339" t="s">
+        <v>133</v>
+      </c>
+      <c r="G339" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>77</v>
+      </c>
+      <c r="C340" t="s">
+        <v>134</v>
+      </c>
+      <c r="G340" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>81</v>
+      </c>
+      <c r="C341" t="s">
+        <v>135</v>
+      </c>
+      <c r="G341" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>55</v>
+      </c>
+      <c r="C342" t="s">
+        <v>136</v>
+      </c>
+      <c r="G342" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>56</v>
+      </c>
+      <c r="C343" t="s">
+        <v>137</v>
+      </c>
+      <c r="G343" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>57</v>
+      </c>
+      <c r="C344" t="s">
+        <v>138</v>
+      </c>
+      <c r="G344" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>58</v>
+      </c>
+      <c r="C345" t="s">
+        <v>139</v>
+      </c>
+      <c r="G345" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>73</v>
+      </c>
+      <c r="C346" t="s">
+        <v>140</v>
+      </c>
+      <c r="G346" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>52</v>
+      </c>
+      <c r="C347" t="s">
+        <v>141</v>
+      </c>
+      <c r="G347" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>62</v>
+      </c>
+      <c r="C348" t="s">
+        <v>142</v>
+      </c>
+      <c r="G348" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>56</v>
+      </c>
+      <c r="C349" t="s">
+        <v>117</v>
+      </c>
+      <c r="G349" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>57</v>
+      </c>
+      <c r="C350" t="s">
+        <v>118</v>
+      </c>
+      <c r="G350" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>58</v>
+      </c>
+      <c r="C351" t="s">
+        <v>119</v>
+      </c>
+      <c r="G351" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>59</v>
+      </c>
+      <c r="C352" t="s">
+        <v>120</v>
+      </c>
+      <c r="G352" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>60</v>
+      </c>
+      <c r="C353" t="s">
+        <v>121</v>
+      </c>
+      <c r="G353" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>61</v>
+      </c>
+      <c r="C354" t="s">
+        <v>122</v>
+      </c>
+      <c r="G354" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>62</v>
+      </c>
+      <c r="C355" t="s">
+        <v>123</v>
+      </c>
+      <c r="G355" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>63</v>
+      </c>
+      <c r="C356" t="s">
+        <v>124</v>
+      </c>
+      <c r="G356" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>64</v>
+      </c>
+      <c r="C357" t="s">
+        <v>125</v>
+      </c>
+      <c r="G357" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>65</v>
+      </c>
+      <c r="C358" t="s">
+        <v>126</v>
+      </c>
+      <c r="G358" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>66</v>
+      </c>
+      <c r="C359" t="s">
+        <v>127</v>
+      </c>
+      <c r="G359" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>67</v>
+      </c>
+      <c r="C360" t="s">
+        <v>128</v>
+      </c>
+      <c r="G360" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>68</v>
+      </c>
+      <c r="C361" t="s">
+        <v>129</v>
+      </c>
+      <c r="G361" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>69</v>
+      </c>
+      <c r="C362" t="s">
+        <v>130</v>
+      </c>
+      <c r="G362" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>70</v>
+      </c>
+      <c r="C363" t="s">
+        <v>104</v>
+      </c>
+      <c r="G363" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>71</v>
+      </c>
+      <c r="C364" t="s">
+        <v>102</v>
+      </c>
+      <c r="G364" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>79</v>
+      </c>
+      <c r="C365" t="s">
+        <v>103</v>
+      </c>
+      <c r="G365" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>80</v>
+      </c>
+      <c r="C366" t="s">
+        <v>105</v>
+      </c>
+      <c r="G366" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>83</v>
+      </c>
+      <c r="C367" t="s">
+        <v>106</v>
+      </c>
+      <c r="G367" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>403</v>
+      </c>
+      <c r="C368" t="s">
+        <v>107</v>
+      </c>
+      <c r="G368" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>404</v>
+      </c>
+      <c r="C369" t="s">
+        <v>108</v>
+      </c>
+      <c r="G369" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>405</v>
+      </c>
+      <c r="C370" t="s">
+        <v>109</v>
+      </c>
+      <c r="G370" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>406</v>
+      </c>
+      <c r="C371" t="s">
+        <v>110</v>
+      </c>
+      <c r="G371" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>405</v>
+      </c>
+      <c r="C372" t="s">
+        <v>111</v>
+      </c>
+      <c r="G372" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>112</v>
+      </c>
+      <c r="C373" t="s">
+        <v>407</v>
+      </c>
+      <c r="G373" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>113</v>
+      </c>
+      <c r="C374" t="s">
+        <v>382</v>
+      </c>
+      <c r="G374" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>114</v>
+      </c>
+      <c r="C375" t="s">
+        <v>383</v>
+      </c>
+      <c r="G375" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>115</v>
+      </c>
+      <c r="C376" t="s">
+        <v>384</v>
+      </c>
+      <c r="G376" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>116</v>
+      </c>
+      <c r="C377" t="s">
+        <v>385</v>
+      </c>
+      <c r="G377" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>143</v>
+      </c>
+      <c r="C378" t="s">
+        <v>386</v>
+      </c>
+      <c r="G378" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>144</v>
+      </c>
+      <c r="C379" t="s">
+        <v>387</v>
+      </c>
+      <c r="G379" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>145</v>
+      </c>
+      <c r="C380" t="s">
+        <v>388</v>
+      </c>
+      <c r="G380" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>146</v>
+      </c>
+      <c r="C381" t="s">
+        <v>389</v>
+      </c>
+      <c r="G381" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>131</v>
+      </c>
+      <c r="C382" t="s">
+        <v>390</v>
+      </c>
+      <c r="G382" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>132</v>
+      </c>
+      <c r="C383" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>133</v>
+      </c>
+      <c r="C384" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A388" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A394" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A401" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A419" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A426" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A432" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A438" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A462" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A468" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A474" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A480" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A488" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A494" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A500" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A506" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A512" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A524" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A530" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A536" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A542" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A549" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A555" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A565" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A571" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A577" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="578" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A578" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A579" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A580" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A581" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A582" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A583" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A584" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A585" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A586" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A587" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A588" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A589" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A590" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A591" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A592" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="593" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A593" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A594" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A595" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A596" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A597" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A598" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A599" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A600" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A601" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A602" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A603" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A604" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A605" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A606" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="607" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A607" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A608" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="609" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A609" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A610" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A611" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A612" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="613" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A613" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A614" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A615" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A616" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A617" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A618" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A619" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A620" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A621" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A622" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A623" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="624" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A624" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A625" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A626" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A627" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A628" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A629" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A630" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A631" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A632" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A633" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A634" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A636" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A639" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A640" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A641" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A642" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A643" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A644" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A645" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A646" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A647" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A648" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A649" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A650" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A651" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A652" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A653" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="655" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A655" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A656" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A657" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A658" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A659" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A660" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A661" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A662" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A663" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="664" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A664" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A665" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A666" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A667" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A668" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="669" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A669" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A670" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A673" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A674" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A675" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A676" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A677" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A678" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A679" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A680" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A681" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="682" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A682" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A683" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A684" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A685" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A686" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A687" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A688" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A689" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="690" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A690" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A691" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A692" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A693" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A694" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A695" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A696" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A697" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="698" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A698" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A699" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A700" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A701" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A702" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A703" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A704" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A705" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A706" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A707" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A708" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A709" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A710" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A711" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A712" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A713" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A714" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A715" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A716" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A717" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A718" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="719" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A719" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A720" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="721" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A721" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A722" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A723" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A724" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="725" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A725" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A726" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A727" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A728" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="729" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A729" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A730" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A731" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A732" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A733" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A734" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A735" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A736" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="737" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A737" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A738" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A739" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A740" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A741" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A742" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A743" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A744" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A745" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A746" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="747" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A747" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A748" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A749" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A750" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A751" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="752" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A752" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A753" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A754" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A760" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A761" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A762" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="763" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A763" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A764" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="765" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A765" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A766" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="767" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A767" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A768" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A769" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A770" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="771" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A771" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A772" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A773" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A774" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A775" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A776" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A777" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A778" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A779" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A780" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A781" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A782" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A783" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A784" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A785" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A786" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="787" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A787" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A788" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="789" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A789" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A790" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A791" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="792" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A792" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A793" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="794" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A794" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A795" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A796" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A797" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A798" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="799" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A799" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A800" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A801" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A802" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A803" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A804" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A805" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A806" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A807" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A808" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A809" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A810" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A811" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="812" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A812" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A813" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="814" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A814" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A815" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A816" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="817" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A817" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A818" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="819" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A819" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A820" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A821" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="822" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A822" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A823" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="824" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A824" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A825" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A826" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A827" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A828" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A829" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A830" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A831" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="832" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A832" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A833" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A834" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="835" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A835" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A836" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A837" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="838" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A838" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="839" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A839" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A840" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="841" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A841" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A842" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A843" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A844" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A845" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A846" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A847" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="848" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A848" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A849" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="850" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A850" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A851" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A852" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A853" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A854" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A855" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A856" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A857" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="858" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A858" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A859" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A860" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="861" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A861" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="862" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A862" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A863" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="864" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A864" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A865" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A866" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A867" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A868" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A869" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A870" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A871" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A872" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A873" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A874" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A875" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A876" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A877" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A878" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A879" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A880" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A881" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A882" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A883" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A884" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A885" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A886" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A887" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A888" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A889" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A890" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A891" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A892" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A893" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A894" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A895" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A896" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A897" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A898" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A899" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A900" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A901" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A902" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A903" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A905" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A906" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A907" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A908" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A909" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A910" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A911" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A912" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="913" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A913" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="914" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A914" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="915" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A915" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="916" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A916" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="917" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A917" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="918" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A918" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="919" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A919" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="920" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A920" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="921" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A921" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="922" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A922" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="923" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A923" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="924" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A924" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="925" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A925" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="926" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A926" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="927" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A927" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="928" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A928" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="929" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A929" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="930" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A930" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="931" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A931" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="932" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A932" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="933" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A933" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="934" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A934" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="935" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A935" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="936" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A936" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="937" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A937" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="938" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A938" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="939" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A939" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="940" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A940" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="941" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A941" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="942" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A942" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="943" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A943" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="944" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A944" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="945" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A945" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="946" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A946" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="947" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A947" t="s">
+        <v>392</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C384 C948:C1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G325:G382 G1:G323 G947:G1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SNP位點挑選資訊_自製表格_Mika_AS.xlsx
+++ b/SNP位點挑選資訊_自製表格_Mika_AS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mikali\Desktop\gitfamily\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E6C0EF-5D1B-4DE1-BC62-2414B533DC8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0337E1AF-942F-47CA-A2AF-85D93D857792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{E97A958B-F40C-4998-BD87-385C687588E0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E97A958B-F40C-4998-BD87-385C687588E0}"/>
   </bookViews>
   <sheets>
     <sheet name="客製化表格" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,64 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Mika Li (李佳諭)</author>
+  </authors>
+  <commentList>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{8A8EAD9C-4256-457F-BEAE-D591951FABB2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Mika Li (</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>李佳諭</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>):</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+TWB
+PANDA
+BIOMART
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1412,7 +1470,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1463,6 +1521,42 @@
       <color theme="1"/>
       <name val="微軟正黑體"/>
       <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="微軟正黑體"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="細明體"/>
+      <family val="3"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -1526,7 +1620,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1545,9 +1639,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1560,23 +1651,22 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
     <cellStyle name="一般 2" xfId="2" xr:uid="{8C8C6BDC-2D58-4418-A0BD-89873430CB24}"/>
     <cellStyle name="一般 3" xfId="1" xr:uid="{104783E6-E13F-4C05-B430-1C85F000E792}"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1926,11 +2016,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B141AFE-70C6-4881-AC9F-CC763A5EE5B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B141AFE-70C6-4881-AC9F-CC763A5EE5B5}">
   <dimension ref="A1:AA383"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1940,29 +2030,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="J1" s="3" t="s">
@@ -1983,7 +2073,7 @@
       <c r="O1" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>409</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -1992,13 +2082,13 @@
       <c r="R1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="T1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="U1" s="8" t="s">
         <v>14</v>
       </c>
       <c r="V1" s="4" t="s">
@@ -2013,10 +2103,10 @@
       <c r="Y1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Z1" s="7" t="s">
+      <c r="Z1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="7" t="s">
+      <c r="AA1" s="6" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3933,9 +4023,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B326:B383 B2:B324">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10986,13 +11077,13 @@
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C384 C948:C1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G325:G382 G1:G323 G947:G1048576">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11002,7 +11093,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519084B5-2642-41AC-B8EF-8D7B7E160BFD}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
